--- a/nodes_source_analyses/households/households_collective_geothermal.converter.xlsx
+++ b/nodes_source_analyses/households/households_collective_geothermal.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC877BB-F15F-BB49-A245-5464D0644D05}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-19540" windowWidth="24840" windowHeight="28340" tabRatio="762" activeTab="2"/>
+    <workbookView xWindow="26360" yWindow="460" windowWidth="24840" windowHeight="26820" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,7 +43,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
   <si>
     <t>Source</t>
   </si>
@@ -379,23 +380,11 @@
     <t>electricity_output_capacity</t>
   </si>
   <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
   <si>
     <t>BDH</t>
-  </si>
-  <si>
-    <t>simult_sd</t>
   </si>
   <si>
     <t>input.geothermal</t>
@@ -428,18 +417,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -980,770 +976,770 @@
   </borders>
   <cellStyleXfs count="484">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="177" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2231,13 +2227,16 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="275"/>
+    <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2738,8 +2737,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
@@ -2748,48 +2747,48 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="22"/>
+    <col min="1" max="1" width="3.33203125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="29" customFormat="1">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>12</v>
@@ -2798,29 +2797,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="72" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="73"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="74"/>
       <c r="C10" s="75"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="74" t="s">
         <v>26</v>
@@ -2829,33 +2828,33 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="74"/>
       <c r="C12" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="74"/>
       <c r="C13" s="77" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="74"/>
       <c r="C14" s="75" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="74"/>
       <c r="C15" s="75"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="74" t="s">
         <v>31</v>
@@ -2864,49 +2863,49 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="74"/>
       <c r="C17" s="79" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="74"/>
       <c r="C18" s="80" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="74"/>
       <c r="C19" s="81" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="82"/>
       <c r="C20" s="83" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="82"/>
       <c r="C21" s="84" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="82"/>
       <c r="C22" s="85" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="82"/>
       <c r="C23" s="86" t="s">
         <v>39</v>
@@ -2919,37 +2918,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="35" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="35"/>
+    <col min="1" max="1" width="3.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="37.83203125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="B2" s="179" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" s="180"/>
       <c r="D2" s="180"/>
@@ -2957,7 +2956,7 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="B3" s="182"/>
       <c r="C3" s="183"/>
       <c r="D3" s="183"/>
@@ -2965,7 +2964,7 @@
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="B4" s="182"/>
       <c r="C4" s="183"/>
       <c r="D4" s="183"/>
@@ -2973,7 +2972,7 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="B5" s="185"/>
       <c r="C5" s="186"/>
       <c r="D5" s="186"/>
@@ -2981,17 +2980,17 @@
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17" thickBot="1">
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="B8" s="37"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3002,7 +3001,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="26" customFormat="1">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>18</v>
@@ -3023,7 +3022,7 @@
       </c>
       <c r="J9" s="89"/>
     </row>
-    <row r="10" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="26" customFormat="1">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -3034,7 +3033,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>42</v>
@@ -3047,7 +3046,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="17" thickBot="1">
       <c r="A12" s="26"/>
       <c r="B12" s="25"/>
       <c r="C12" s="142" t="s">
@@ -3069,11 +3068,11 @@
       <c r="J12" s="14"/>
       <c r="K12" s="26"/>
     </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="17" thickBot="1">
       <c r="A13" s="104"/>
       <c r="B13" s="105"/>
       <c r="C13" s="170" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="173">
@@ -3090,7 +3089,7 @@
       <c r="J13" s="106"/>
       <c r="K13" s="36"/>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="17" thickBot="1">
       <c r="A14" s="104"/>
       <c r="B14" s="105"/>
       <c r="C14" s="170" t="s">
@@ -3107,7 +3106,7 @@
       <c r="J14" s="106"/>
       <c r="K14" s="36"/>
     </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="17" thickBot="1">
       <c r="A15" s="104"/>
       <c r="B15" s="105"/>
       <c r="C15" s="170" t="s">
@@ -3124,7 +3123,7 @@
       <c r="J15" s="106"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="17" thickBot="1">
       <c r="A16" s="26"/>
       <c r="B16" s="25"/>
       <c r="C16" s="170" t="s">
@@ -3144,7 +3143,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="26"/>
     </row>
-    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="17" thickBot="1">
       <c r="A17" s="26"/>
       <c r="B17" s="25"/>
       <c r="C17" s="170" t="s">
@@ -3166,7 +3165,7 @@
       <c r="J17" s="14"/>
       <c r="K17" s="26"/>
     </row>
-    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="17" thickBot="1">
       <c r="A18" s="26"/>
       <c r="B18" s="25"/>
       <c r="C18" s="107" t="s">
@@ -3188,7 +3187,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="26"/>
     </row>
-    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="17" thickBot="1">
       <c r="A19" s="104"/>
       <c r="B19" s="105"/>
       <c r="C19" s="166" t="s">
@@ -3208,7 +3207,7 @@
       <c r="J19" s="106"/>
       <c r="K19" s="36"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="B20" s="40"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
@@ -3219,7 +3218,7 @@
       <c r="I20" s="36"/>
       <c r="J20" s="90"/>
     </row>
-    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="17" thickBot="1">
       <c r="B21" s="40"/>
       <c r="C21" s="13" t="s">
         <v>41</v>
@@ -3232,7 +3231,7 @@
       <c r="I21" s="36"/>
       <c r="J21" s="90"/>
     </row>
-    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="17" thickBot="1">
       <c r="B22" s="40"/>
       <c r="C22" s="36" t="s">
         <v>21</v>
@@ -3255,7 +3254,7 @@
       </c>
       <c r="J22" s="90"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="B23" s="40"/>
       <c r="C23" s="36" t="s">
         <v>22</v>
@@ -3278,7 +3277,7 @@
       </c>
       <c r="J23" s="90"/>
     </row>
-    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="17" thickBot="1">
       <c r="B24" s="124"/>
       <c r="C24" s="167" t="s">
         <v>73</v>
@@ -3301,7 +3300,7 @@
       </c>
       <c r="J24" s="128"/>
     </row>
-    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="17" thickBot="1">
       <c r="B25" s="124"/>
       <c r="C25" s="167" t="s">
         <v>71</v>
@@ -3322,7 +3321,7 @@
       </c>
       <c r="J25" s="128"/>
     </row>
-    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="17" thickBot="1">
       <c r="B26" s="124"/>
       <c r="C26" s="167" t="s">
         <v>72</v>
@@ -3343,7 +3342,7 @@
       </c>
       <c r="J26" s="128"/>
     </row>
-    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="17" thickBot="1">
       <c r="B27" s="124"/>
       <c r="C27" s="168" t="s">
         <v>80</v>
@@ -3364,7 +3363,7 @@
       </c>
       <c r="J27" s="128"/>
     </row>
-    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="17" thickBot="1">
       <c r="B28" s="124"/>
       <c r="C28" s="167" t="s">
         <v>74</v>
@@ -3385,7 +3384,7 @@
       </c>
       <c r="J28" s="128"/>
     </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="17" thickBot="1">
       <c r="A29" s="104"/>
       <c r="B29" s="105"/>
       <c r="C29" s="107" t="s">
@@ -3409,7 +3408,7 @@
       </c>
       <c r="J29" s="106"/>
     </row>
-    <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="17" thickBot="1">
       <c r="A30" s="104"/>
       <c r="B30" s="105"/>
       <c r="C30" s="107" t="s">
@@ -3431,7 +3430,7 @@
       </c>
       <c r="J30" s="106"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="104"/>
       <c r="B31" s="105"/>
       <c r="C31" s="107"/>
@@ -3443,7 +3442,7 @@
       <c r="I31" s="107"/>
       <c r="J31" s="106"/>
     </row>
-    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="17" thickBot="1">
       <c r="A32" s="104"/>
       <c r="B32" s="105"/>
       <c r="C32" s="13" t="s">
@@ -3457,7 +3456,7 @@
       <c r="I32" s="107"/>
       <c r="J32" s="106"/>
     </row>
-    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="17" thickBot="1">
       <c r="A33" s="104"/>
       <c r="B33" s="105"/>
       <c r="C33" s="107" t="s">
@@ -3481,7 +3480,7 @@
       </c>
       <c r="J33" s="106"/>
     </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="17" thickBot="1">
       <c r="A34" s="104"/>
       <c r="B34" s="105"/>
       <c r="C34" s="107" t="s">
@@ -3505,7 +3504,7 @@
       </c>
       <c r="J34" s="106"/>
     </row>
-    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="17" thickBot="1">
       <c r="A35" s="104"/>
       <c r="B35" s="105"/>
       <c r="C35" s="107" t="s">
@@ -3529,7 +3528,7 @@
       </c>
       <c r="J35" s="106"/>
     </row>
-    <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="17" thickBot="1">
       <c r="A36" s="104"/>
       <c r="B36" s="105"/>
       <c r="C36" s="107" t="s">
@@ -3551,7 +3550,7 @@
       </c>
       <c r="J36" s="106"/>
     </row>
-    <row r="37" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="17" thickBot="1">
       <c r="A37" s="104"/>
       <c r="B37" s="105"/>
       <c r="C37" s="170" t="s">
@@ -3571,7 +3570,7 @@
       </c>
       <c r="J37" s="106"/>
     </row>
-    <row r="38" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="17" thickBot="1">
       <c r="A38" s="104"/>
       <c r="B38" s="105"/>
       <c r="C38" s="170" t="s">
@@ -3591,16 +3590,16 @@
       </c>
       <c r="J38" s="106"/>
     </row>
-    <row r="39" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="17" thickBot="1">
       <c r="A39" s="104"/>
       <c r="B39" s="105"/>
       <c r="C39" s="162" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="41">
         <f>'Research data'!H34</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="102"/>
       <c r="G39" s="102"/>
@@ -3611,16 +3610,16 @@
       </c>
       <c r="J39" s="106"/>
     </row>
-    <row r="40" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="17" thickBot="1">
       <c r="A40" s="104"/>
       <c r="B40" s="105"/>
       <c r="C40" s="162" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="41">
         <f>'Research data'!H35</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="102"/>
       <c r="G40" s="102"/>
@@ -3631,16 +3630,16 @@
       </c>
       <c r="J40" s="106"/>
     </row>
-    <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="17" thickBot="1">
       <c r="A41" s="104"/>
       <c r="B41" s="105"/>
       <c r="C41" s="162" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="41">
         <f>'Research data'!H36</f>
-        <v>1</v>
+        <v>19530</v>
       </c>
       <c r="F41" s="102"/>
       <c r="G41" s="102"/>
@@ -3651,16 +3650,16 @@
       </c>
       <c r="J41" s="106"/>
     </row>
-    <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="17" thickBot="1">
       <c r="A42" s="104"/>
       <c r="B42" s="105"/>
       <c r="C42" s="162" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="41">
         <f>'Research data'!H37</f>
-        <v>1</v>
+        <v>10710</v>
       </c>
       <c r="F42" s="102"/>
       <c r="G42" s="102"/>
@@ -3671,10 +3670,10 @@
       </c>
       <c r="J42" s="106"/>
     </row>
-    <row r="43" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="17" thickBot="1">
       <c r="A43" s="104"/>
       <c r="B43" s="105"/>
-      <c r="C43" s="162" t="s">
+      <c r="C43" s="170" t="s">
         <v>95</v>
       </c>
       <c r="D43" s="23"/>
@@ -3682,8 +3681,8 @@
         <f>'Research data'!H38</f>
         <v>0</v>
       </c>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
       <c r="H43" s="102"/>
       <c r="I43" s="159" t="str">
         <f>IF(LEN('Research data'!J38)&gt;=1,'Research data'!J$4,'Research data'!L$4)</f>
@@ -3691,102 +3690,69 @@
       </c>
       <c r="J43" s="106"/>
     </row>
-    <row r="44" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="17" thickBot="1">
       <c r="A44" s="104"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="162" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="41">
-        <f>'Research data'!H39</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="159" t="str">
-        <f>IF(LEN('Research data'!J39)&gt;=1,'Research data'!J$4,'Research data'!L$4)</f>
-        <v>Quintel</v>
-      </c>
-      <c r="J44" s="106"/>
-    </row>
-    <row r="45" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="110"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="171"/>
+      <c r="E44" s="164"/>
+      <c r="F44" s="172"/>
+      <c r="G44" s="172"/>
+      <c r="H44" s="172"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="112"/>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="104"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="162" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="41">
-        <f>'Research data'!H40</f>
-        <v>19530</v>
-      </c>
-      <c r="F45" s="102"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="102"/>
-      <c r="I45" s="159" t="str">
-        <f>IF(LEN('Research data'!J40)&gt;=1,'Research data'!J$4,'Research data'!L$4)</f>
-        <v>Quintel</v>
-      </c>
-      <c r="J45" s="106"/>
-    </row>
-    <row r="46" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="104"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="162" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="41">
-        <f>'Research data'!H41</f>
-        <v>10710</v>
-      </c>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="102"/>
-      <c r="I46" s="159" t="str">
-        <f>IF(LEN('Research data'!J41)&gt;=1,'Research data'!J$4,'Research data'!L$4)</f>
-        <v>Quintel</v>
-      </c>
-      <c r="J46" s="106"/>
-    </row>
-    <row r="47" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="104"/>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="104"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="170" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="41">
-        <f>'Research data'!H42</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="102"/>
-      <c r="I47" s="159" t="str">
-        <f>IF(LEN('Research data'!J42)&gt;=1,'Research data'!J$4,'Research data'!L$4)</f>
-        <v>Quintel</v>
-      </c>
-      <c r="J47" s="106"/>
-    </row>
-    <row r="48" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="104"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="104"/>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="104"/>
-      <c r="B48" s="110"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="171"/>
-      <c r="E48" s="164"/>
-      <c r="F48" s="172"/>
-      <c r="G48" s="172"/>
-      <c r="H48" s="172"/>
-      <c r="I48" s="165"/>
-      <c r="J48" s="112"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="104"/>
+      <c r="C48" s="161"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="104"/>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="104"/>
       <c r="B49" s="104"/>
-      <c r="C49" s="104"/>
+      <c r="C49" s="160"/>
       <c r="D49" s="104"/>
       <c r="E49" s="104"/>
       <c r="F49" s="104"/>
@@ -3795,10 +3761,9 @@
       <c r="I49" s="104"/>
       <c r="J49" s="104"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="104"/>
       <c r="B50" s="104"/>
-      <c r="C50" s="104"/>
       <c r="D50" s="104"/>
       <c r="E50" s="104"/>
       <c r="F50" s="104"/>
@@ -3807,10 +3772,9 @@
       <c r="I50" s="104"/>
       <c r="J50" s="104"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" s="104"/>
       <c r="B51" s="104"/>
-      <c r="C51" s="160"/>
       <c r="D51" s="104"/>
       <c r="E51" s="104"/>
       <c r="F51" s="104"/>
@@ -3819,10 +3783,10 @@
       <c r="I51" s="104"/>
       <c r="J51" s="104"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="161"/>
+      <c r="D52" s="104"/>
       <c r="E52" s="104"/>
       <c r="F52" s="104"/>
       <c r="G52" s="104"/>
@@ -3830,117 +3794,72 @@
       <c r="I52" s="104"/>
       <c r="J52" s="104"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" s="104"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="160"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="104"/>
-      <c r="B54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="104"/>
-      <c r="J54" s="104"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="104"/>
-      <c r="B55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="104"/>
-      <c r="J55" s="104"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="104"/>
-      <c r="B56" s="104"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="104"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="104"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="104"/>
+      <c r="C54" s="161"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="C55" s="161"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="C56" s="161"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="C57" s="161"/>
+    </row>
+    <row r="58" spans="1:10">
       <c r="C58" s="161"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="C59" s="161"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="C60" s="161"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="C61" s="161"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="C62" s="161"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="C63" s="161"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="C64" s="161"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3">
       <c r="C65" s="161"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3">
       <c r="C66" s="161"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3">
       <c r="C67" s="161"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3">
       <c r="C68" s="161"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:3">
       <c r="C69" s="161"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:3">
       <c r="C70" s="161"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:3">
       <c r="C71" s="161"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:3">
       <c r="C72" s="161"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:3">
       <c r="C73" s="161"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:3">
       <c r="C74" s="161"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="161"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="161"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="161"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3952,40 +3871,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:Q45"/>
+  <dimension ref="A2:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.28515625" style="42" customWidth="1"/>
-    <col min="14" max="14" width="37.28515625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.33203125" style="42" customWidth="1"/>
+    <col min="14" max="14" width="37.33203125" style="42" customWidth="1"/>
     <col min="15" max="15" width="11" style="42" customWidth="1"/>
-    <col min="16" max="16" width="2.42578125" style="42" customWidth="1"/>
-    <col min="17" max="17" width="22.28515625" style="42" customWidth="1"/>
-    <col min="18" max="16384" width="10.7109375" style="42"/>
+    <col min="16" max="16" width="2.5" style="42" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" style="42" customWidth="1"/>
+    <col min="18" max="16384" width="10.6640625" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="17" thickBot="1"/>
+    <row r="3" spans="1:17">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -4003,7 +3922,7 @@
       <c r="P3" s="44"/>
       <c r="Q3" s="44"/>
     </row>
-    <row r="4" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="26" customFormat="1">
       <c r="B4" s="25"/>
       <c r="C4" s="87" t="s">
         <v>18</v>
@@ -4019,7 +3938,7 @@
       </c>
       <c r="I4" s="87"/>
       <c r="J4" s="87" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K4" s="87"/>
       <c r="L4" s="87" t="s">
@@ -4030,7 +3949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="18" customHeight="1">
       <c r="B5" s="45"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -4045,7 +3964,7 @@
       <c r="M5" s="47"/>
       <c r="N5" s="52"/>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>42</v>
@@ -4062,7 +3981,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="51"/>
     </row>
-    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="17" thickBot="1">
       <c r="B7" s="45"/>
       <c r="C7" s="144" t="str">
         <f>Dashboard!C12</f>
@@ -4086,10 +4005,10 @@
       </c>
       <c r="M7" s="47"/>
       <c r="N7" s="176" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17" thickBot="1">
       <c r="B8" s="45"/>
       <c r="C8" s="144" t="str">
         <f>Dashboard!C13</f>
@@ -4111,10 +4030,10 @@
       </c>
       <c r="M8" s="47"/>
       <c r="N8" s="176" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17" thickBot="1">
       <c r="B9" s="45"/>
       <c r="C9" s="144" t="str">
         <f>Dashboard!C14</f>
@@ -4137,7 +4056,7 @@
       <c r="M9" s="47"/>
       <c r="N9" s="101"/>
     </row>
-    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="17" thickBot="1">
       <c r="B10" s="45"/>
       <c r="C10" s="144" t="str">
         <f>Dashboard!C15</f>
@@ -4160,7 +4079,7 @@
       <c r="M10" s="47"/>
       <c r="N10" s="101"/>
     </row>
-    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="17" thickBot="1">
       <c r="B11" s="45"/>
       <c r="C11" s="144" t="str">
         <f>Dashboard!C16</f>
@@ -4185,7 +4104,7 @@
       <c r="M11" s="47"/>
       <c r="N11" s="51"/>
     </row>
-    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="17" thickBot="1">
       <c r="A12" s="104"/>
       <c r="B12" s="105"/>
       <c r="C12" s="144" t="str">
@@ -4210,7 +4129,7 @@
       <c r="N12" s="129"/>
       <c r="O12" s="104"/>
     </row>
-    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="17" thickBot="1">
       <c r="A13" s="104"/>
       <c r="B13" s="105"/>
       <c r="C13" s="144" t="str">
@@ -4237,7 +4156,7 @@
       <c r="N13" s="129"/>
       <c r="O13" s="104"/>
     </row>
-    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="17" thickBot="1">
       <c r="A14" s="104"/>
       <c r="B14" s="105"/>
       <c r="C14" s="144" t="str">
@@ -4262,7 +4181,7 @@
       <c r="N14" s="129"/>
       <c r="O14" s="104"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="104"/>
       <c r="B15" s="105"/>
       <c r="C15" s="144"/>
@@ -4275,7 +4194,7 @@
       <c r="M15" s="115"/>
       <c r="N15" s="52"/>
     </row>
-    <row r="16" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="17" thickBot="1">
       <c r="A16" s="104"/>
       <c r="B16" s="105"/>
       <c r="C16" s="12" t="str">
@@ -4289,7 +4208,7 @@
       <c r="M16" s="115"/>
       <c r="N16" s="101"/>
     </row>
-    <row r="17" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="17" thickBot="1">
       <c r="A17" s="104"/>
       <c r="B17" s="105"/>
       <c r="C17" s="144" t="str">
@@ -4313,7 +4232,7 @@
       </c>
       <c r="N17" s="101"/>
     </row>
-    <row r="18" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="17" thickBot="1">
       <c r="A18" s="104"/>
       <c r="B18" s="105"/>
       <c r="C18" s="144" t="str">
@@ -4334,7 +4253,7 @@
       <c r="M18" s="115"/>
       <c r="N18" s="120"/>
     </row>
-    <row r="19" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="17" thickBot="1">
       <c r="A19" s="104"/>
       <c r="B19" s="105"/>
       <c r="C19" s="144" t="str">
@@ -4355,7 +4274,7 @@
       <c r="M19" s="108"/>
       <c r="N19" s="120"/>
     </row>
-    <row r="20" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="17" thickBot="1">
       <c r="A20" s="133"/>
       <c r="B20" s="134"/>
       <c r="C20" s="144" t="str">
@@ -4381,7 +4300,7 @@
       <c r="M20" s="133"/>
       <c r="N20" s="136"/>
     </row>
-    <row r="21" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="17" thickBot="1">
       <c r="A21" s="133"/>
       <c r="B21" s="134"/>
       <c r="C21" s="144" t="str">
@@ -4407,7 +4326,7 @@
       <c r="M21" s="133"/>
       <c r="N21" s="136"/>
     </row>
-    <row r="22" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="17" thickBot="1">
       <c r="A22" s="104"/>
       <c r="B22" s="105"/>
       <c r="C22" s="144" t="str">
@@ -4430,7 +4349,7 @@
       <c r="M22" s="108"/>
       <c r="N22" s="120"/>
     </row>
-    <row r="23" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="17" thickBot="1">
       <c r="A23" s="104"/>
       <c r="B23" s="105"/>
       <c r="C23" s="144" t="str">
@@ -4451,7 +4370,7 @@
       <c r="M23" s="108"/>
       <c r="N23" s="120"/>
     </row>
-    <row r="24" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="17" thickBot="1">
       <c r="C24" s="144" t="str">
         <f>Dashboard!C29</f>
         <v>wacc</v>
@@ -4464,7 +4383,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="17" thickBot="1">
       <c r="C25" s="144" t="str">
         <f>Dashboard!C30</f>
         <v>takes_part_in_ets</v>
@@ -4478,13 +4397,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="B26" s="45"/>
       <c r="C26" s="144"/>
       <c r="J26" s="146"/>
       <c r="N26" s="101"/>
     </row>
-    <row r="27" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="17" thickBot="1">
       <c r="A27" s="104"/>
       <c r="B27" s="105"/>
       <c r="C27" s="144" t="str">
@@ -4500,7 +4419,7 @@
       <c r="M27" s="11"/>
       <c r="N27" s="129"/>
     </row>
-    <row r="28" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="17" thickBot="1">
       <c r="A28" s="104"/>
       <c r="B28" s="105"/>
       <c r="C28" s="144" t="str">
@@ -4523,7 +4442,7 @@
       <c r="M28" s="116"/>
       <c r="N28" s="129"/>
     </row>
-    <row r="29" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="17" thickBot="1">
       <c r="A29" s="104"/>
       <c r="B29" s="105"/>
       <c r="C29" s="144" t="str">
@@ -4534,7 +4453,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="145">
-        <f t="shared" ref="H29:H35" si="2">L29</f>
+        <f t="shared" ref="H29:H33" si="2">L29</f>
         <v>0</v>
       </c>
       <c r="J29" s="146"/>
@@ -4545,7 +4464,7 @@
       <c r="M29" s="116"/>
       <c r="N29" s="129"/>
     </row>
-    <row r="30" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="17" thickBot="1">
       <c r="A30" s="104"/>
       <c r="B30" s="105"/>
       <c r="C30" s="144" t="str">
@@ -4567,7 +4486,7 @@
       <c r="M30" s="11"/>
       <c r="N30" s="120"/>
     </row>
-    <row r="31" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="17" thickBot="1">
       <c r="A31" s="104"/>
       <c r="B31" s="105"/>
       <c r="C31" s="144" t="str">
@@ -4586,7 +4505,7 @@
       </c>
       <c r="N31" s="101"/>
     </row>
-    <row r="32" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="17" thickBot="1">
       <c r="A32" s="104"/>
       <c r="B32" s="105"/>
       <c r="C32" s="144" t="str">
@@ -4611,7 +4530,7 @@
       <c r="N32" s="129"/>
       <c r="O32" s="104"/>
     </row>
-    <row r="33" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="17" thickBot="1">
       <c r="A33" s="104"/>
       <c r="B33" s="105"/>
       <c r="C33" s="144" t="str">
@@ -4636,155 +4555,83 @@
       <c r="N33" s="129"/>
       <c r="O33" s="104"/>
     </row>
-    <row r="34" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="17" thickBot="1">
       <c r="A34" s="104"/>
       <c r="B34" s="105"/>
       <c r="C34" s="144" t="str">
         <f>Dashboard!C39</f>
-        <v>simult_sd</v>
+        <v>hours_prep_nl</v>
       </c>
       <c r="H34" s="145">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J34" s="146"/>
-      <c r="K34" s="104"/>
+        <f t="shared" ref="H34:H38" si="3">L34</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="48"/>
       <c r="L34" s="145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="129"/>
     </row>
-    <row r="35" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="104"/>
-      <c r="B35" s="105"/>
+    <row r="35" spans="1:15" ht="17" thickBot="1">
       <c r="C35" s="144" t="str">
         <f>Dashboard!C40</f>
-        <v>simult_se</v>
+        <v>hours_prod_nl</v>
       </c>
       <c r="H35" s="145">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J35" s="146"/>
-      <c r="K35" s="104"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L35" s="145">
-        <v>1</v>
-      </c>
-      <c r="N35" s="129"/>
-    </row>
-    <row r="36" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="104"/>
-      <c r="B36" s="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="17" thickBot="1">
       <c r="C36" s="144" t="str">
         <f>Dashboard!C41</f>
-        <v>simult_wd</v>
+        <v>hours_place_nl</v>
       </c>
       <c r="H36" s="145">
-        <f>L36</f>
-        <v>1</v>
-      </c>
-      <c r="J36" s="146"/>
-      <c r="K36" s="104"/>
+        <f t="shared" si="3"/>
+        <v>19530</v>
+      </c>
       <c r="L36" s="145">
-        <v>1</v>
-      </c>
-      <c r="N36" s="129"/>
-    </row>
-    <row r="37" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="104"/>
-      <c r="B37" s="105"/>
+        <v>19530</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="17" thickBot="1">
       <c r="C37" s="144" t="str">
         <f>Dashboard!C42</f>
-        <v>simult_we</v>
+        <v>hours_maint_nl</v>
       </c>
       <c r="H37" s="145">
-        <f>L37</f>
-        <v>1</v>
-      </c>
-      <c r="J37" s="146"/>
-      <c r="K37" s="104"/>
+        <f t="shared" si="3"/>
+        <v>10710</v>
+      </c>
       <c r="L37" s="145">
-        <v>1</v>
-      </c>
-      <c r="N37" s="129"/>
-    </row>
-    <row r="38" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="104"/>
-      <c r="B38" s="105"/>
+        <v>10710</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="17" thickBot="1">
       <c r="C38" s="144" t="str">
         <f>Dashboard!C43</f>
-        <v>hours_prep_nl</v>
+        <v>hours_remov_nl</v>
       </c>
       <c r="H38" s="145">
-        <f t="shared" ref="H38:H42" si="3">L38</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J38" s="48"/>
       <c r="L38" s="145">
         <v>0</v>
       </c>
-      <c r="N38" s="129"/>
-    </row>
-    <row r="39" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="144" t="str">
-        <f>Dashboard!C44</f>
-        <v>hours_prod_nl</v>
-      </c>
-      <c r="H39" s="145">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="144" t="str">
-        <f>Dashboard!C45</f>
-        <v>hours_place_nl</v>
-      </c>
-      <c r="H40" s="145">
-        <f t="shared" si="3"/>
-        <v>19530</v>
-      </c>
-      <c r="L40" s="145">
-        <v>19530</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="144" t="str">
-        <f>Dashboard!C46</f>
-        <v>hours_maint_nl</v>
-      </c>
-      <c r="H41" s="145">
-        <f t="shared" si="3"/>
-        <v>10710</v>
-      </c>
-      <c r="L41" s="145">
-        <v>10710</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="144" t="str">
-        <f>Dashboard!C47</f>
-        <v>hours_remov_nl</v>
-      </c>
-      <c r="H42" s="145">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C43" s="144"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C44" s="144"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C45" s="144"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="C39" s="144"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="C40" s="144"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="C41" s="144"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4793,8 +4640,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J29"/>
@@ -4803,22 +4650,22 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="54" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="54" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="54" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="54" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="54" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="54" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="59" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="59" customWidth="1"/>
-    <col min="10" max="10" width="98.28515625" style="54" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="54"/>
+    <col min="1" max="1" width="3.5" style="54" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="54" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="54" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="54" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="59" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="59" customWidth="1"/>
+    <col min="10" max="10" width="98.33203125" style="54" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="55"/>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
@@ -4829,7 +4676,7 @@
       <c r="I2" s="60"/>
       <c r="J2" s="56"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="57"/>
       <c r="C3" s="13" t="s">
         <v>14</v>
@@ -4842,7 +4689,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="57"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -4853,7 +4700,7 @@
       <c r="I4" s="61"/>
       <c r="J4" s="53"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="62"/>
       <c r="C5" s="15" t="s">
         <v>15</v>
@@ -4880,7 +4727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="57"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -4891,7 +4738,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="57"/>
       <c r="C7" s="141"/>
       <c r="D7" s="175" t="s">
@@ -4910,11 +4757,11 @@
         <v>43160</v>
       </c>
       <c r="I7" s="175" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J7" s="143"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="57"/>
       <c r="C8" s="104"/>
       <c r="D8" s="53"/>
@@ -4925,7 +4772,7 @@
       <c r="I8" s="53"/>
       <c r="J8" s="53"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="57"/>
       <c r="C9" s="104"/>
       <c r="D9" s="100"/>
@@ -4935,7 +4782,7 @@
       <c r="H9" s="98"/>
       <c r="I9" s="53"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="57"/>
       <c r="C10" s="119"/>
       <c r="D10" s="53"/>
@@ -4946,7 +4793,7 @@
       <c r="I10" s="96"/>
       <c r="J10" s="95"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="57"/>
       <c r="C11" s="119"/>
       <c r="D11" s="107"/>
@@ -4957,7 +4804,7 @@
       <c r="I11" s="53"/>
       <c r="J11" s="107"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="57"/>
       <c r="C12" s="119"/>
       <c r="D12" s="53"/>
@@ -4968,7 +4815,7 @@
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="57"/>
       <c r="C13" s="119"/>
       <c r="D13" s="53"/>
@@ -4979,7 +4826,7 @@
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="57"/>
       <c r="C14" s="119"/>
       <c r="D14" s="123"/>
@@ -4990,7 +4837,7 @@
       <c r="I14" s="107"/>
       <c r="J14" s="94"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="57"/>
       <c r="E15" s="100"/>
       <c r="F15" s="53"/>
@@ -4999,7 +4846,7 @@
       <c r="I15" s="107"/>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="57"/>
       <c r="D16" s="104"/>
       <c r="E16" s="107"/>
@@ -5009,15 +4856,15 @@
       <c r="I16" s="107"/>
       <c r="J16" s="53"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="57"/>
       <c r="C17" s="141"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="57"/>
       <c r="C18" s="104"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="57"/>
       <c r="C19" s="119"/>
       <c r="D19" s="53"/>
@@ -5028,7 +4875,7 @@
       <c r="I19" s="53"/>
       <c r="J19" s="53"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="57"/>
       <c r="C20" s="148"/>
       <c r="D20" s="149"/>
@@ -5039,7 +4886,7 @@
       <c r="I20" s="96"/>
       <c r="J20" s="150"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="B21" s="57"/>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
@@ -5049,19 +4896,19 @@
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10">
       <c r="H29" s="152"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:O208"/>
@@ -5070,25 +4917,25 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="63" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="63" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="63" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="63" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="63" customWidth="1"/>
     <col min="4" max="4" width="4" style="63" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="63" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="63" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="153" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="153"/>
-    <col min="9" max="13" width="10.7109375" style="63"/>
-    <col min="14" max="14" width="15.7109375" style="63" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="63"/>
-    <col min="16" max="16" width="54.7109375" style="63" customWidth="1"/>
-    <col min="17" max="16384" width="10.7109375" style="63"/>
+    <col min="5" max="5" width="13.1640625" style="63" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="63" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="153" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="153"/>
+    <col min="9" max="13" width="10.6640625" style="63"/>
+    <col min="14" max="14" width="15.6640625" style="63" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="63"/>
+    <col min="16" max="16" width="54.6640625" style="63" customWidth="1"/>
+    <col min="17" max="16384" width="10.6640625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="17" thickBot="1"/>
+    <row r="2" spans="1:15">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
@@ -5103,7 +4950,7 @@
       <c r="M2" s="65"/>
       <c r="N2" s="66"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="67"/>
       <c r="B3" s="92"/>
       <c r="C3" s="71" t="s">
@@ -5125,7 +4972,7 @@
       <c r="M3" s="68"/>
       <c r="N3" s="93"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="B4" s="69"/>
       <c r="E4" s="70"/>
       <c r="F4" s="70"/>
@@ -5138,7 +4985,7 @@
       <c r="N4" s="70"/>
       <c r="O4" s="70"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="B5" s="69"/>
       <c r="C5" s="97"/>
       <c r="D5" s="70"/>
@@ -5153,7 +5000,7 @@
       <c r="M5" s="70"/>
       <c r="N5" s="70"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="B6" s="69"/>
       <c r="C6" s="70"/>
       <c r="D6" s="70"/>
@@ -5165,7 +5012,7 @@
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="B7" s="69"/>
       <c r="C7" s="70"/>
       <c r="D7" s="70"/>
@@ -5180,7 +5027,7 @@
       <c r="N7" s="70"/>
       <c r="O7" s="70"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="B8" s="69"/>
       <c r="C8" s="70"/>
       <c r="D8" s="70"/>
@@ -5194,7 +5041,7 @@
       <c r="N8" s="70"/>
       <c r="O8" s="70"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="B9" s="69"/>
       <c r="C9" s="70"/>
       <c r="D9" s="70"/>
@@ -5210,7 +5057,7 @@
       <c r="N9" s="70"/>
       <c r="O9" s="70"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="B10" s="69"/>
       <c r="C10" s="70"/>
       <c r="D10" s="70"/>
@@ -5226,7 +5073,7 @@
       <c r="N10" s="70"/>
       <c r="O10" s="70"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="B11" s="69"/>
       <c r="C11" s="70"/>
       <c r="D11" s="70"/>
@@ -5242,7 +5089,7 @@
       <c r="N11" s="70"/>
       <c r="O11" s="70"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="B12" s="69"/>
       <c r="C12" s="70"/>
       <c r="D12" s="70"/>
@@ -5258,7 +5105,7 @@
       <c r="N12" s="70"/>
       <c r="O12" s="70"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="B13" s="69"/>
       <c r="C13" s="70"/>
       <c r="E13" s="153"/>
@@ -5268,7 +5115,7 @@
       <c r="N13" s="70"/>
       <c r="O13" s="70"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="B14" s="69"/>
       <c r="C14" s="70"/>
       <c r="E14" s="153"/>
@@ -5278,7 +5125,7 @@
       <c r="N14" s="70"/>
       <c r="O14" s="70"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="B15" s="69"/>
       <c r="C15" s="70"/>
       <c r="E15" s="153"/>
@@ -5288,7 +5135,7 @@
       <c r="N15" s="70"/>
       <c r="O15" s="70"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="B16" s="69"/>
       <c r="C16" s="70"/>
       <c r="E16" s="153"/>
@@ -5298,7 +5145,7 @@
       <c r="N16" s="70"/>
       <c r="O16" s="70"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15">
       <c r="B17" s="69"/>
       <c r="C17" s="70"/>
       <c r="E17" s="153"/>
@@ -5309,7 +5156,7 @@
       <c r="N17" s="70"/>
       <c r="O17" s="70"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15">
       <c r="B18" s="69"/>
       <c r="C18" s="70"/>
       <c r="E18" s="153"/>
@@ -5319,7 +5166,7 @@
       <c r="N18" s="70"/>
       <c r="O18" s="70"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15">
       <c r="B19" s="69"/>
       <c r="C19" s="70"/>
       <c r="D19" s="70"/>
@@ -5331,7 +5178,7 @@
       <c r="N19" s="70"/>
       <c r="O19" s="70"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15">
       <c r="B20" s="69"/>
       <c r="C20" s="70"/>
       <c r="D20" s="70"/>
@@ -5342,7 +5189,7 @@
       <c r="N20" s="70"/>
       <c r="O20" s="70"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15">
       <c r="B21" s="69"/>
       <c r="C21" s="70"/>
       <c r="D21" s="70"/>
@@ -5353,7 +5200,7 @@
       <c r="N21" s="70"/>
       <c r="O21" s="70"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15">
       <c r="B22" s="69"/>
       <c r="C22" s="70"/>
       <c r="E22" s="153"/>
@@ -5363,7 +5210,7 @@
       <c r="N22" s="70"/>
       <c r="O22" s="70"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15">
       <c r="B23" s="69"/>
       <c r="C23" s="70"/>
       <c r="E23" s="153"/>
@@ -5373,7 +5220,7 @@
       <c r="N23" s="70"/>
       <c r="O23" s="70"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15">
       <c r="B24" s="69"/>
       <c r="C24" s="70"/>
       <c r="E24" s="153"/>
@@ -5383,7 +5230,7 @@
       <c r="N24" s="70"/>
       <c r="O24" s="70"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15">
       <c r="B25" s="69"/>
       <c r="C25" s="70"/>
       <c r="E25" s="153"/>
@@ -5393,7 +5240,7 @@
       <c r="N25" s="70"/>
       <c r="O25" s="70"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15">
       <c r="B26" s="69"/>
       <c r="C26" s="70"/>
       <c r="K26" s="70"/>
@@ -5402,7 +5249,7 @@
       <c r="N26" s="70"/>
       <c r="O26" s="70"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15">
       <c r="B27" s="69"/>
       <c r="C27" s="70"/>
       <c r="K27" s="70"/>
@@ -5411,7 +5258,7 @@
       <c r="N27" s="70"/>
       <c r="O27" s="70"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15">
       <c r="B28" s="69"/>
       <c r="C28" s="70"/>
       <c r="K28" s="70"/>
@@ -5420,7 +5267,7 @@
       <c r="N28" s="70"/>
       <c r="O28" s="70"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15">
       <c r="B29" s="69"/>
       <c r="C29" s="70"/>
       <c r="K29" s="70"/>
@@ -5429,7 +5276,7 @@
       <c r="N29" s="70"/>
       <c r="O29" s="70"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15">
       <c r="B30" s="69"/>
       <c r="C30" s="70"/>
       <c r="K30" s="70"/>
@@ -5438,7 +5285,7 @@
       <c r="N30" s="70"/>
       <c r="O30" s="70"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15">
       <c r="B31" s="69"/>
       <c r="C31" s="70"/>
       <c r="K31" s="70"/>
@@ -5447,7 +5294,7 @@
       <c r="N31" s="70"/>
       <c r="O31" s="70"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15">
       <c r="B32" s="69"/>
       <c r="C32" s="70"/>
       <c r="K32" s="70"/>
@@ -5456,7 +5303,7 @@
       <c r="N32" s="70"/>
       <c r="O32" s="70"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15">
       <c r="B33" s="69"/>
       <c r="C33" s="70"/>
       <c r="K33" s="70"/>
@@ -5465,7 +5312,7 @@
       <c r="N33" s="70"/>
       <c r="O33" s="70"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15">
       <c r="B34" s="69"/>
       <c r="C34" s="70"/>
       <c r="K34" s="70"/>
@@ -5474,7 +5321,7 @@
       <c r="N34" s="70"/>
       <c r="O34" s="70"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15">
       <c r="B35" s="69"/>
       <c r="C35" s="70"/>
       <c r="K35" s="70"/>
@@ -5483,7 +5330,7 @@
       <c r="N35" s="70"/>
       <c r="O35" s="70"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15">
       <c r="B36" s="69"/>
       <c r="C36" s="70"/>
       <c r="K36" s="70"/>
@@ -5492,656 +5339,656 @@
       <c r="N36" s="70"/>
       <c r="O36" s="70"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15">
       <c r="B37" s="69"/>
       <c r="N37" s="70"/>
       <c r="O37" s="70"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15">
       <c r="B38" s="69"/>
       <c r="N38" s="70"/>
       <c r="O38" s="70"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15">
       <c r="B39" s="69"/>
       <c r="N39" s="70"/>
       <c r="O39" s="70"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15">
       <c r="B40" s="69"/>
       <c r="C40" s="151"/>
       <c r="N40" s="70"/>
       <c r="O40" s="70"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15">
       <c r="B41" s="69"/>
       <c r="C41" s="70"/>
       <c r="D41" s="70"/>
       <c r="N41" s="70"/>
       <c r="O41" s="70"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15">
       <c r="B42" s="69"/>
       <c r="C42" s="70"/>
       <c r="N42" s="70"/>
       <c r="O42" s="70"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15">
       <c r="B43" s="69"/>
       <c r="E43" s="138"/>
       <c r="N43" s="70"/>
       <c r="O43" s="70"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15">
       <c r="B44" s="69"/>
       <c r="N44" s="70"/>
       <c r="O44" s="70"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15">
       <c r="B45" s="69"/>
       <c r="N45" s="70"/>
       <c r="O45" s="70"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15">
       <c r="B46" s="69"/>
       <c r="F46" s="121"/>
       <c r="N46" s="70"/>
       <c r="O46" s="70"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15">
       <c r="B47" s="69"/>
       <c r="N47" s="70"/>
       <c r="O47" s="70"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15">
       <c r="B48" s="69"/>
       <c r="N48" s="70"/>
       <c r="O48" s="70"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:15">
       <c r="B49" s="69"/>
       <c r="N49" s="70"/>
       <c r="O49" s="70"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15">
       <c r="B50" s="69"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:15">
       <c r="B51" s="69"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:15">
       <c r="B52" s="69"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:15">
       <c r="B53" s="69"/>
       <c r="C53" s="70"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:15">
       <c r="B54" s="69"/>
       <c r="C54" s="70"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:15">
       <c r="B55" s="69"/>
       <c r="C55" s="70"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:15">
       <c r="B56" s="69"/>
       <c r="C56" s="70"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:15">
       <c r="B57" s="69"/>
       <c r="C57" s="70"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:15">
       <c r="B58" s="69"/>
       <c r="C58" s="70"/>
       <c r="E58" s="122"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:15">
       <c r="B59" s="69"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:15">
       <c r="B60" s="69"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:15">
       <c r="B61" s="69"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:15">
       <c r="B62" s="69"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:15">
       <c r="B63" s="69"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:15">
       <c r="B64" s="69"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2">
       <c r="B65" s="69"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2">
       <c r="B66" s="69"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2">
       <c r="B67" s="69"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2">
       <c r="B68" s="69"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2">
       <c r="B69" s="69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2">
       <c r="B70" s="69"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2">
       <c r="B71" s="69"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2">
       <c r="B72" s="69"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2">
       <c r="B73" s="69"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2">
       <c r="B74" s="69"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2">
       <c r="B75" s="69"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2">
       <c r="B76" s="69"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2">
       <c r="B77" s="69"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2">
       <c r="B78" s="69"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2">
       <c r="B79" s="69"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2">
       <c r="B80" s="69"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2">
       <c r="B81" s="69"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2">
       <c r="B82" s="69"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2">
       <c r="B83" s="69"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2">
       <c r="B84" s="69"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2">
       <c r="B85" s="69"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2">
       <c r="B86" s="69"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2">
       <c r="B87" s="69"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2">
       <c r="B88" s="69"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2">
       <c r="B89" s="69"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2">
       <c r="B90" s="69"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2">
       <c r="B91" s="69"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2">
       <c r="B92" s="69"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:2">
       <c r="B93" s="69"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:2">
       <c r="B94" s="69"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2">
       <c r="B95" s="69"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:2">
       <c r="B96" s="69"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="B97" s="69"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="B98" s="69"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="B99" s="69"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="B100" s="69"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="B101" s="69"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="B102" s="69"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="B103" s="69"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="B104" s="69"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="B105" s="69"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="B106" s="69"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="B107" s="69"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="B108" s="69"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="B109" s="69"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="B110" s="69"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111" s="137"/>
       <c r="B111" s="139"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112" s="137"/>
       <c r="B112" s="139"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113" s="137"/>
       <c r="B113" s="139"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114" s="137"/>
       <c r="B114" s="139"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115" s="137"/>
       <c r="B115" s="139"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116" s="137"/>
       <c r="B116" s="139"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" s="137"/>
       <c r="B117" s="139"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" s="137"/>
       <c r="B118" s="139"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" s="137"/>
       <c r="B119" s="139"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" s="137"/>
       <c r="B120" s="139"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" s="137"/>
       <c r="B121" s="139"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122" s="137"/>
       <c r="B122" s="139"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123" s="137"/>
       <c r="B123" s="139"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124" s="137"/>
       <c r="B124" s="139"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125" s="137"/>
       <c r="B125" s="139"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126" s="137"/>
       <c r="B126" s="139"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127" s="137"/>
       <c r="B127" s="139"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128" s="137"/>
       <c r="B128" s="139"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129" s="137"/>
       <c r="B129" s="139"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130" s="137"/>
       <c r="B130" s="139"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131" s="137"/>
       <c r="B131" s="139"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132" s="137"/>
       <c r="B132" s="139"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133" s="137"/>
       <c r="B133" s="139"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134" s="137"/>
       <c r="B134" s="139"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135" s="137"/>
       <c r="B135" s="139"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136" s="137"/>
       <c r="B136" s="139"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137" s="137"/>
       <c r="B137" s="139"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138" s="137"/>
       <c r="B138" s="139"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139" s="137"/>
       <c r="B139" s="139"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140" s="137"/>
       <c r="B140" s="139"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141" s="137"/>
       <c r="B141" s="139"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142" s="137"/>
       <c r="B142" s="139"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143" s="137"/>
       <c r="B143" s="139"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144" s="137"/>
       <c r="B144" s="139"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145" s="137"/>
       <c r="B145" s="139"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146" s="137"/>
       <c r="B146" s="139"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147" s="137"/>
       <c r="B147" s="139"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148" s="137"/>
       <c r="B148" s="139"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149" s="137"/>
       <c r="B149" s="139"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150" s="137"/>
       <c r="B150" s="139"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151" s="137"/>
       <c r="B151" s="139"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152" s="137"/>
       <c r="B152" s="139"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153" s="137"/>
       <c r="B153" s="139"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154" s="137"/>
       <c r="B154" s="139"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155" s="137"/>
       <c r="B155" s="139"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156" s="137"/>
       <c r="B156" s="139"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157" s="137"/>
       <c r="B157" s="139"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158" s="137"/>
       <c r="B158" s="139"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159" s="137"/>
       <c r="B159" s="139"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160" s="137"/>
       <c r="B160" s="139"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161" s="137"/>
       <c r="B161" s="139"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162" s="137"/>
       <c r="B162" s="139"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163" s="137"/>
       <c r="B163" s="139"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164" s="137"/>
       <c r="B164" s="139"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165" s="137"/>
       <c r="B165" s="139"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166" s="137"/>
       <c r="B166" s="139"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167" s="137"/>
       <c r="B167" s="139"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168" s="137"/>
       <c r="B168" s="139"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169" s="137"/>
       <c r="B169" s="139"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170" s="137"/>
       <c r="B170" s="139"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171" s="137"/>
       <c r="B171" s="139"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172" s="137"/>
       <c r="B172" s="139"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173" s="137"/>
       <c r="B173" s="139"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174" s="137"/>
       <c r="B174" s="139"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175" s="137"/>
       <c r="B175" s="139"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176" s="137"/>
       <c r="B176" s="139"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177" s="137"/>
       <c r="B177" s="139"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178" s="137"/>
       <c r="B178" s="139"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179" s="137"/>
       <c r="B179" s="139"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180" s="137"/>
       <c r="B180" s="139"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181" s="137"/>
       <c r="B181" s="139"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182" s="137"/>
       <c r="B182" s="139"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183" s="137"/>
       <c r="B183" s="139"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184" s="137"/>
       <c r="B184" s="139"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185" s="137"/>
       <c r="B185" s="139"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186" s="137"/>
       <c r="B186" s="139"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187" s="137"/>
       <c r="B187" s="139"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188" s="137"/>
       <c r="B188" s="139"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189" s="137"/>
       <c r="B189" s="139"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190" s="137"/>
       <c r="B190" s="139"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191" s="137"/>
       <c r="B191" s="139"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192" s="137"/>
       <c r="B192" s="139"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193" s="137"/>
       <c r="B193" s="139"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194" s="137"/>
       <c r="B194" s="139"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195" s="137"/>
       <c r="B195" s="139"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196" s="137"/>
       <c r="B196" s="139"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197" s="137"/>
       <c r="B197" s="139"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198" s="137"/>
       <c r="B198" s="139"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199" s="137"/>
       <c r="B199" s="139"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200" s="137"/>
       <c r="B200" s="139"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201" s="137"/>
       <c r="B201" s="139"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202" s="137"/>
       <c r="B202" s="139"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203" s="137"/>
       <c r="B203" s="139"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204" s="137"/>
       <c r="B204" s="139"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205" s="137"/>
       <c r="B205" s="139"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206" s="137"/>
       <c r="B206" s="139"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207" s="137"/>
       <c r="B207" s="139"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208" s="137"/>
       <c r="B208" s="139"/>
     </row>
